--- a/database/lookup_tables.xlsx
+++ b/database/lookup_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobkro/MAXIV/FragMAX/LP3/FragMAX_crystal_preparation/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105E18CD-58D3-4246-BDB8-892103BC9B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27E01A2-0FA5-ED4F-8AAC-143B8BC901C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15400" yWindow="3740" windowWidth="32440" windowHeight="19400" activeTab="3" xr2:uid="{23C4A0E7-F54C-6F47-8447-51E96695376B}"/>
+    <workbookView xWindow="15400" yWindow="3740" windowWidth="32440" windowHeight="19400" xr2:uid="{23C4A0E7-F54C-6F47-8447-51E96695376B}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_table" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="soak_method_table" sheetId="4" r:id="rId4"/>
     <sheet name="space_group_table" sheetId="5" r:id="rId5"/>
     <sheet name="compound_table" sheetId="9" r:id="rId6"/>
+    <sheet name="compound_batch_table" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="CompoundTable" localSheetId="5">compound_table!$A$1:$I$1037</definedName>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5214" uniqueCount="4180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6784" uniqueCount="4480">
   <si>
     <t>M</t>
   </si>
@@ -12613,6 +12614,906 @@
   </si>
   <si>
     <t>shifter transfer</t>
+  </si>
+  <si>
+    <t>compound_batch_code</t>
+  </si>
+  <si>
+    <t>library_name</t>
+  </si>
+  <si>
+    <t>compound_plate_name</t>
+  </si>
+  <si>
+    <t>compound_plate_well</t>
+  </si>
+  <si>
+    <t>compound_plate_type</t>
+  </si>
+  <si>
+    <t>solvent</t>
+  </si>
+  <si>
+    <t>compound_concentration</t>
+  </si>
+  <si>
+    <t>compound_concentration_unit</t>
+  </si>
+  <si>
+    <t>compound_volume</t>
+  </si>
+  <si>
+    <t>compound_volume_unit</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>FragMAXlib</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>H09</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>VT00002-b01</t>
+  </si>
+  <si>
+    <t>FML_alpha_DMSO_200</t>
+  </si>
+  <si>
+    <t>VT00015-b01</t>
+  </si>
+  <si>
+    <t>VT00019-b01</t>
+  </si>
+  <si>
+    <t>VT00022-b01</t>
+  </si>
+  <si>
+    <t>VT00025-b01</t>
+  </si>
+  <si>
+    <t>VT00029-b01</t>
+  </si>
+  <si>
+    <t>VT00033-b01</t>
+  </si>
+  <si>
+    <t>VT00034-b01</t>
+  </si>
+  <si>
+    <t>VT00036-b01</t>
+  </si>
+  <si>
+    <t>VT00038-b01</t>
+  </si>
+  <si>
+    <t>VT00039-b01</t>
+  </si>
+  <si>
+    <t>VT00048-b01</t>
+  </si>
+  <si>
+    <t>VT00049-b01</t>
+  </si>
+  <si>
+    <t>VT00053-b01</t>
+  </si>
+  <si>
+    <t>VT00056-b01</t>
+  </si>
+  <si>
+    <t>VT00058-b01</t>
+  </si>
+  <si>
+    <t>VT00059-b01</t>
+  </si>
+  <si>
+    <t>VT00064-b01</t>
+  </si>
+  <si>
+    <t>VT00065-b01</t>
+  </si>
+  <si>
+    <t>VT00066-b01</t>
+  </si>
+  <si>
+    <t>VT00068-b01</t>
+  </si>
+  <si>
+    <t>VT00077-b01</t>
+  </si>
+  <si>
+    <t>VT00079-b01</t>
+  </si>
+  <si>
+    <t>VT00082-b01</t>
+  </si>
+  <si>
+    <t>VT00083-b01</t>
+  </si>
+  <si>
+    <t>VT00084-b01</t>
+  </si>
+  <si>
+    <t>VT00085-b01</t>
+  </si>
+  <si>
+    <t>VT00086-b01</t>
+  </si>
+  <si>
+    <t>VT00087-b01</t>
+  </si>
+  <si>
+    <t>VT00089-b01</t>
+  </si>
+  <si>
+    <t>VT00096-b01</t>
+  </si>
+  <si>
+    <t>VT00118-b01</t>
+  </si>
+  <si>
+    <t>VT00122-b01</t>
+  </si>
+  <si>
+    <t>VT00123-b01</t>
+  </si>
+  <si>
+    <t>VT00124-b01</t>
+  </si>
+  <si>
+    <t>VT00127-b01</t>
+  </si>
+  <si>
+    <t>VT00128-b01</t>
+  </si>
+  <si>
+    <t>VT00136-b01</t>
+  </si>
+  <si>
+    <t>VT00143-b01</t>
+  </si>
+  <si>
+    <t>VT00147-b01</t>
+  </si>
+  <si>
+    <t>VT00150-b01</t>
+  </si>
+  <si>
+    <t>VT00154-b01</t>
+  </si>
+  <si>
+    <t>VT00155-b01</t>
+  </si>
+  <si>
+    <t>VT00159-b01</t>
+  </si>
+  <si>
+    <t>VT00162-b01</t>
+  </si>
+  <si>
+    <t>VT00163-b01</t>
+  </si>
+  <si>
+    <t>VT00164-b01</t>
+  </si>
+  <si>
+    <t>VT00165-b01</t>
+  </si>
+  <si>
+    <t>VT00167-b01</t>
+  </si>
+  <si>
+    <t>VT00169-b01</t>
+  </si>
+  <si>
+    <t>VT00172-b01</t>
+  </si>
+  <si>
+    <t>VT00173-b01</t>
+  </si>
+  <si>
+    <t>VT00175-b01</t>
+  </si>
+  <si>
+    <t>VT00178-b01</t>
+  </si>
+  <si>
+    <t>VT00180-b01</t>
+  </si>
+  <si>
+    <t>VT00181-b01</t>
+  </si>
+  <si>
+    <t>VT00188-b01</t>
+  </si>
+  <si>
+    <t>VT00190-b01</t>
+  </si>
+  <si>
+    <t>VT00191-b01</t>
+  </si>
+  <si>
+    <t>VT00193-b01</t>
+  </si>
+  <si>
+    <t>VT00198-b01</t>
+  </si>
+  <si>
+    <t>VT00204-b01</t>
+  </si>
+  <si>
+    <t>VT00207-b01</t>
+  </si>
+  <si>
+    <t>VT00210-b01</t>
+  </si>
+  <si>
+    <t>VT00211-b01</t>
+  </si>
+  <si>
+    <t>VT00212-b01</t>
+  </si>
+  <si>
+    <t>VT00213-b01</t>
+  </si>
+  <si>
+    <t>VT00214-b01</t>
+  </si>
+  <si>
+    <t>VT00215-b01</t>
+  </si>
+  <si>
+    <t>VT00216-b01</t>
+  </si>
+  <si>
+    <t>VT00217-b01</t>
+  </si>
+  <si>
+    <t>VT00218-b01</t>
+  </si>
+  <si>
+    <t>VT00219-b01</t>
+  </si>
+  <si>
+    <t>VT00220-b01</t>
+  </si>
+  <si>
+    <t>VT00221-b01</t>
+  </si>
+  <si>
+    <t>VT00222-b01</t>
+  </si>
+  <si>
+    <t>VT00223-b01</t>
+  </si>
+  <si>
+    <t>VT00224-b01</t>
+  </si>
+  <si>
+    <t>VT00225-b01</t>
+  </si>
+  <si>
+    <t>VT00226-b01</t>
+  </si>
+  <si>
+    <t>VT00227-b01</t>
+  </si>
+  <si>
+    <t>VT00228-b01</t>
+  </si>
+  <si>
+    <t>VT00229-b01</t>
+  </si>
+  <si>
+    <t>VT00230-b01</t>
+  </si>
+  <si>
+    <t>VT00231-b01</t>
+  </si>
+  <si>
+    <t>VT00232-b01</t>
+  </si>
+  <si>
+    <t>VT00233-b01</t>
+  </si>
+  <si>
+    <t>VT00234-b01</t>
+  </si>
+  <si>
+    <t>VT00235-b01</t>
+  </si>
+  <si>
+    <t>VT00236-b01</t>
+  </si>
+  <si>
+    <t>VT00237-b01</t>
+  </si>
+  <si>
+    <t>VT00238-b01</t>
+  </si>
+  <si>
+    <t>VT00239-b01</t>
+  </si>
+  <si>
+    <t>VT00240-b01</t>
+  </si>
+  <si>
+    <t>VT00241-b01</t>
+  </si>
+  <si>
+    <t>VT00242-b01</t>
+  </si>
+  <si>
+    <t>VT00243-b01</t>
+  </si>
+  <si>
+    <t>FML_beta_DMSO_200</t>
+  </si>
+  <si>
+    <t>VT00244-b01</t>
+  </si>
+  <si>
+    <t>VT00245-b01</t>
+  </si>
+  <si>
+    <t>VT00246-b01</t>
+  </si>
+  <si>
+    <t>VT00247-b01</t>
+  </si>
+  <si>
+    <t>VT00248-b01</t>
+  </si>
+  <si>
+    <t>VT00249-b01</t>
+  </si>
+  <si>
+    <t>VT00250-b01</t>
+  </si>
+  <si>
+    <t>VT00251-b01</t>
+  </si>
+  <si>
+    <t>VT00252-b01</t>
+  </si>
+  <si>
+    <t>VT00253-b01</t>
+  </si>
+  <si>
+    <t>VT00254-b01</t>
+  </si>
+  <si>
+    <t>VT00255-b01</t>
+  </si>
+  <si>
+    <t>VT00257-b01</t>
+  </si>
+  <si>
+    <t>VT00258-b01</t>
+  </si>
+  <si>
+    <t>VT00259-b01</t>
+  </si>
+  <si>
+    <t>VT00260-b01</t>
+  </si>
+  <si>
+    <t>VT00261-b01</t>
+  </si>
+  <si>
+    <t>VT00262-b01</t>
+  </si>
+  <si>
+    <t>VT00263-b01</t>
+  </si>
+  <si>
+    <t>VT00264-b01</t>
+  </si>
+  <si>
+    <t>VT00265-b01</t>
+  </si>
+  <si>
+    <t>VT00267-b01</t>
+  </si>
+  <si>
+    <t>VT00268-b01</t>
+  </si>
+  <si>
+    <t>VT00401-b01</t>
+  </si>
+  <si>
+    <t>VT00402-b01</t>
+  </si>
+  <si>
+    <t>VT00403-b01</t>
+  </si>
+  <si>
+    <t>VT00404-b01</t>
+  </si>
+  <si>
+    <t>VT00405-b01</t>
+  </si>
+  <si>
+    <t>VT00406-b01</t>
+  </si>
+  <si>
+    <t>VT00407-b01</t>
+  </si>
+  <si>
+    <t>VT00408-b01</t>
+  </si>
+  <si>
+    <t>VT00409-b01</t>
+  </si>
+  <si>
+    <t>VT00410-b01</t>
+  </si>
+  <si>
+    <t>VT00411-b01</t>
+  </si>
+  <si>
+    <t>VT00412-b01</t>
+  </si>
+  <si>
+    <t>VT00413-b01</t>
+  </si>
+  <si>
+    <t>VT00414-b01</t>
+  </si>
+  <si>
+    <t>VT00415-b01</t>
+  </si>
+  <si>
+    <t>VT00416-b01</t>
+  </si>
+  <si>
+    <t>VT00417-b01</t>
+  </si>
+  <si>
+    <t>VT00418-b01</t>
+  </si>
+  <si>
+    <t>VT00419-b01</t>
+  </si>
+  <si>
+    <t>VT00420-b01</t>
+  </si>
+  <si>
+    <t>VT00421-b01</t>
+  </si>
+  <si>
+    <t>VT00422-b01</t>
+  </si>
+  <si>
+    <t>VT00423-b01</t>
+  </si>
+  <si>
+    <t>VT00424-b01</t>
+  </si>
+  <si>
+    <t>VT00425-b01</t>
+  </si>
+  <si>
+    <t>VT00426-b01</t>
+  </si>
+  <si>
+    <t>VT00427-b01</t>
+  </si>
+  <si>
+    <t>VT00428-b01</t>
+  </si>
+  <si>
+    <t>VT00429-b01</t>
+  </si>
+  <si>
+    <t>VT00430-b01</t>
+  </si>
+  <si>
+    <t>VT00431-b01</t>
+  </si>
+  <si>
+    <t>VT00432-b01</t>
+  </si>
+  <si>
+    <t>VT00433-b01</t>
+  </si>
+  <si>
+    <t>VT00434-b01</t>
+  </si>
+  <si>
+    <t>VT00435-b01</t>
+  </si>
+  <si>
+    <t>VT00436-b01</t>
+  </si>
+  <si>
+    <t>VT00437-b01</t>
+  </si>
+  <si>
+    <t>VT00438-b01</t>
+  </si>
+  <si>
+    <t>VT00439-b01</t>
+  </si>
+  <si>
+    <t>VT00440-b01</t>
+  </si>
+  <si>
+    <t>VT00441-b01</t>
+  </si>
+  <si>
+    <t>VT00442-b01</t>
+  </si>
+  <si>
+    <t>VT00443-b01</t>
+  </si>
+  <si>
+    <t>VT00444-b01</t>
+  </si>
+  <si>
+    <t>VT00445-b01</t>
+  </si>
+  <si>
+    <t>VT00446-b01</t>
+  </si>
+  <si>
+    <t>VT00447-b01</t>
+  </si>
+  <si>
+    <t>VT00448-b01</t>
+  </si>
+  <si>
+    <t>VT00449-b01</t>
+  </si>
+  <si>
+    <t>VT00450-b01</t>
+  </si>
+  <si>
+    <t>VT00451-b01</t>
+  </si>
+  <si>
+    <t>%(v/v)</t>
+  </si>
+  <si>
+    <t>volume_per_volume</t>
+  </si>
+  <si>
+    <t>%(w/v)</t>
+  </si>
+  <si>
+    <t>mass_per_volume</t>
+  </si>
+  <si>
+    <t>96-well_V-bottom_PP</t>
+  </si>
+  <si>
+    <t>g/L</t>
+  </si>
+  <si>
+    <t>mg/mL</t>
+  </si>
+  <si>
+    <t>gram_per_liter</t>
+  </si>
+  <si>
+    <t>milligram_per_microliter</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>gram</t>
+  </si>
+  <si>
+    <t>milligram</t>
+  </si>
+  <si>
+    <t>microgram</t>
+  </si>
+  <si>
+    <t>nanogram</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>picogram</t>
   </si>
 </sst>
 </file>
@@ -12972,10 +13873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F70308-A4DB-EC47-892A-0EC684591C0E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13113,6 +14014,109 @@
         <v>9.9999999999999978E-13</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4461</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4469</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4470</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4471</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C20" si="2">C16/1000</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4476</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4473</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999986E-10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999978E-13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13120,10 +14124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D029206-8D1B-B148-9740-707F77590ED7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13144,6 +14148,11 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4465</v>
       </c>
     </row>
   </sheetData>
@@ -13187,7 +14196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E892E4-F8A6-004B-A507-D3EEC1E7EEE0}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -13823,8 +14832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EFFF782-0B43-A94C-8A05-1138E0B74E29}">
   <dimension ref="A1:I1037"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37454,4 +38463,6043 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC04814-3453-EB49-B2F4-9B1144409F99}">
+  <dimension ref="A1:L172"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="12" width="22.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4182</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4183</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4184</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4185</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4186</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4187</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4188</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4189</v>
+      </c>
+      <c r="L1" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4288</v>
+      </c>
+      <c r="B2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4192</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>558</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4193</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>558</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4194</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>558</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4195</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>558</v>
+      </c>
+      <c r="H5">
+        <v>1000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4196</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>558</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>200</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4294</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4197</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>558</v>
+      </c>
+      <c r="H7">
+        <v>1000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4295</v>
+      </c>
+      <c r="B8" t="s">
+        <v>321</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4198</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>558</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>200</v>
+      </c>
+      <c r="K8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4296</v>
+      </c>
+      <c r="B9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>558</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B10" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>558</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>200</v>
+      </c>
+      <c r="K10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4201</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>558</v>
+      </c>
+      <c r="H11">
+        <v>1000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>200</v>
+      </c>
+      <c r="K11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4202</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>558</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>200</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4203</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>558</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>200</v>
+      </c>
+      <c r="K13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4204</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>558</v>
+      </c>
+      <c r="H14">
+        <v>1000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>200</v>
+      </c>
+      <c r="K14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4302</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4205</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>558</v>
+      </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4303</v>
+      </c>
+      <c r="B16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4206</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>558</v>
+      </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>200</v>
+      </c>
+      <c r="K16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4207</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>558</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>200</v>
+      </c>
+      <c r="K17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>4305</v>
+      </c>
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4208</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
+        <v>558</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>200</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B19" t="s">
+        <v>336</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4209</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" t="s">
+        <v>558</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4307</v>
+      </c>
+      <c r="B20" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4210</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>558</v>
+      </c>
+      <c r="H20">
+        <v>1000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>200</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4308</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4211</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>558</v>
+      </c>
+      <c r="H21">
+        <v>1000</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>200</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4212</v>
+      </c>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s">
+        <v>558</v>
+      </c>
+      <c r="H22">
+        <v>1000</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>200</v>
+      </c>
+      <c r="K22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4310</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4213</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>558</v>
+      </c>
+      <c r="H23">
+        <v>1000</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B24" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4214</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" t="s">
+        <v>558</v>
+      </c>
+      <c r="H24">
+        <v>1000</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4312</v>
+      </c>
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4215</v>
+      </c>
+      <c r="F25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s">
+        <v>558</v>
+      </c>
+      <c r="H25">
+        <v>1000</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>200</v>
+      </c>
+      <c r="K25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4216</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>558</v>
+      </c>
+      <c r="H26">
+        <v>1000</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B27" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4217</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>558</v>
+      </c>
+      <c r="H27">
+        <v>1000</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4218</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>558</v>
+      </c>
+      <c r="H28">
+        <v>1000</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>200</v>
+      </c>
+      <c r="K28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B29" t="s">
+        <v>294</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4219</v>
+      </c>
+      <c r="F29" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s">
+        <v>558</v>
+      </c>
+      <c r="H29">
+        <v>1000</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>200</v>
+      </c>
+      <c r="K29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4220</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+      <c r="G30" t="s">
+        <v>558</v>
+      </c>
+      <c r="H30">
+        <v>1000</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>200</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B31" t="s">
+        <v>309</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4221</v>
+      </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s">
+        <v>558</v>
+      </c>
+      <c r="H31">
+        <v>1000</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>200</v>
+      </c>
+      <c r="K31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4222</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>558</v>
+      </c>
+      <c r="H32">
+        <v>1000</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>200</v>
+      </c>
+      <c r="K32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4223</v>
+      </c>
+      <c r="F33" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s">
+        <v>558</v>
+      </c>
+      <c r="H33">
+        <v>1000</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>200</v>
+      </c>
+      <c r="K33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4224</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>558</v>
+      </c>
+      <c r="H34">
+        <v>1000</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>200</v>
+      </c>
+      <c r="K34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B35" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4225</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>558</v>
+      </c>
+      <c r="H35">
+        <v>1000</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>200</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4226</v>
+      </c>
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>558</v>
+      </c>
+      <c r="H36">
+        <v>1000</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>200</v>
+      </c>
+      <c r="K36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4227</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>558</v>
+      </c>
+      <c r="H37">
+        <v>1000</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>200</v>
+      </c>
+      <c r="K37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B38" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4228</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>558</v>
+      </c>
+      <c r="H38">
+        <v>1000</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>200</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B39" t="s">
+        <v>303</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F39" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s">
+        <v>558</v>
+      </c>
+      <c r="H39">
+        <v>1000</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>200</v>
+      </c>
+      <c r="K39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4230</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>558</v>
+      </c>
+      <c r="H40">
+        <v>1000</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>200</v>
+      </c>
+      <c r="K40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B41" t="s">
+        <v>354</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4231</v>
+      </c>
+      <c r="F41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s">
+        <v>558</v>
+      </c>
+      <c r="H41">
+        <v>1000</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>200</v>
+      </c>
+      <c r="K41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B42" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s">
+        <v>558</v>
+      </c>
+      <c r="H42">
+        <v>1000</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>200</v>
+      </c>
+      <c r="K42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4233</v>
+      </c>
+      <c r="F43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s">
+        <v>558</v>
+      </c>
+      <c r="H43">
+        <v>1000</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>200</v>
+      </c>
+      <c r="K43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4234</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>558</v>
+      </c>
+      <c r="H44">
+        <v>1000</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>200</v>
+      </c>
+      <c r="K44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B45" t="s">
+        <v>375</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>558</v>
+      </c>
+      <c r="H45">
+        <v>1000</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>200</v>
+      </c>
+      <c r="K45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>558</v>
+      </c>
+      <c r="H46">
+        <v>1000</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>200</v>
+      </c>
+      <c r="K46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4237</v>
+      </c>
+      <c r="F47" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s">
+        <v>558</v>
+      </c>
+      <c r="H47">
+        <v>1000</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>200</v>
+      </c>
+      <c r="K47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4238</v>
+      </c>
+      <c r="F48" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s">
+        <v>558</v>
+      </c>
+      <c r="H48">
+        <v>1000</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>200</v>
+      </c>
+      <c r="K48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4239</v>
+      </c>
+      <c r="F49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s">
+        <v>558</v>
+      </c>
+      <c r="H49">
+        <v>1000</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>200</v>
+      </c>
+      <c r="K49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B50" t="s">
+        <v>252</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4240</v>
+      </c>
+      <c r="F50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s">
+        <v>558</v>
+      </c>
+      <c r="H50">
+        <v>1000</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>200</v>
+      </c>
+      <c r="K50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B51" t="s">
+        <v>261</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4241</v>
+      </c>
+      <c r="F51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s">
+        <v>558</v>
+      </c>
+      <c r="H51">
+        <v>1000</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>200</v>
+      </c>
+      <c r="K51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B52" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4242</v>
+      </c>
+      <c r="F52" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s">
+        <v>558</v>
+      </c>
+      <c r="H52">
+        <v>1000</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>200</v>
+      </c>
+      <c r="K52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4243</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>558</v>
+      </c>
+      <c r="H53">
+        <v>1000</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>200</v>
+      </c>
+      <c r="K53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4244</v>
+      </c>
+      <c r="F54" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s">
+        <v>558</v>
+      </c>
+      <c r="H54">
+        <v>1000</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>200</v>
+      </c>
+      <c r="K54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B55" t="s">
+        <v>330</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4245</v>
+      </c>
+      <c r="F55" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s">
+        <v>558</v>
+      </c>
+      <c r="H55">
+        <v>1000</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>200</v>
+      </c>
+      <c r="K55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B56" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4246</v>
+      </c>
+      <c r="F56" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s">
+        <v>558</v>
+      </c>
+      <c r="H56">
+        <v>1000</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>200</v>
+      </c>
+      <c r="K56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B57" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s">
+        <v>558</v>
+      </c>
+      <c r="H57">
+        <v>1000</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>200</v>
+      </c>
+      <c r="K57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4248</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>558</v>
+      </c>
+      <c r="H58">
+        <v>1000</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>200</v>
+      </c>
+      <c r="K58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B59" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E59" t="s">
+        <v>4249</v>
+      </c>
+      <c r="F59" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s">
+        <v>558</v>
+      </c>
+      <c r="H59">
+        <v>1000</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>200</v>
+      </c>
+      <c r="K59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B60" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E60" t="s">
+        <v>4250</v>
+      </c>
+      <c r="F60" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s">
+        <v>558</v>
+      </c>
+      <c r="H60">
+        <v>1000</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>200</v>
+      </c>
+      <c r="K60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4251</v>
+      </c>
+      <c r="F61" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s">
+        <v>558</v>
+      </c>
+      <c r="H61">
+        <v>1000</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>200</v>
+      </c>
+      <c r="K61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E62" t="s">
+        <v>4252</v>
+      </c>
+      <c r="F62" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s">
+        <v>558</v>
+      </c>
+      <c r="H62">
+        <v>1000</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>200</v>
+      </c>
+      <c r="K62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B63" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4253</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s">
+        <v>558</v>
+      </c>
+      <c r="H63">
+        <v>1000</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>200</v>
+      </c>
+      <c r="K63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B64" t="s">
+        <v>390</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4254</v>
+      </c>
+      <c r="F64" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s">
+        <v>558</v>
+      </c>
+      <c r="H64">
+        <v>1000</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>200</v>
+      </c>
+      <c r="K64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F65" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s">
+        <v>558</v>
+      </c>
+      <c r="H65">
+        <v>1000</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>200</v>
+      </c>
+      <c r="K65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4256</v>
+      </c>
+      <c r="F66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s">
+        <v>558</v>
+      </c>
+      <c r="H66">
+        <v>1000</v>
+      </c>
+      <c r="I66" t="s">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>200</v>
+      </c>
+      <c r="K66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B67" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E67" t="s">
+        <v>4257</v>
+      </c>
+      <c r="F67" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s">
+        <v>558</v>
+      </c>
+      <c r="H67">
+        <v>1000</v>
+      </c>
+      <c r="I67" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>200</v>
+      </c>
+      <c r="K67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B68" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4258</v>
+      </c>
+      <c r="F68" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s">
+        <v>558</v>
+      </c>
+      <c r="H68">
+        <v>1000</v>
+      </c>
+      <c r="I68" t="s">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>200</v>
+      </c>
+      <c r="K68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B69" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E69" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s">
+        <v>558</v>
+      </c>
+      <c r="H69">
+        <v>1000</v>
+      </c>
+      <c r="I69" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>200</v>
+      </c>
+      <c r="K69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B70" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4260</v>
+      </c>
+      <c r="F70" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>558</v>
+      </c>
+      <c r="H70">
+        <v>1000</v>
+      </c>
+      <c r="I70" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>200</v>
+      </c>
+      <c r="K70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B71" t="s">
+        <v>327</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4261</v>
+      </c>
+      <c r="F71" t="s">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>558</v>
+      </c>
+      <c r="H71">
+        <v>1000</v>
+      </c>
+      <c r="I71" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>200</v>
+      </c>
+      <c r="K71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B72" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4262</v>
+      </c>
+      <c r="F72" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s">
+        <v>558</v>
+      </c>
+      <c r="H72">
+        <v>1000</v>
+      </c>
+      <c r="I72" t="s">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>200</v>
+      </c>
+      <c r="K72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B73" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4263</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s">
+        <v>558</v>
+      </c>
+      <c r="H73">
+        <v>1000</v>
+      </c>
+      <c r="I73" t="s">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>200</v>
+      </c>
+      <c r="K73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4264</v>
+      </c>
+      <c r="F74" t="s">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s">
+        <v>558</v>
+      </c>
+      <c r="H74">
+        <v>1000</v>
+      </c>
+      <c r="I74" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>200</v>
+      </c>
+      <c r="K74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4265</v>
+      </c>
+      <c r="F75" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s">
+        <v>558</v>
+      </c>
+      <c r="H75">
+        <v>1000</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>200</v>
+      </c>
+      <c r="K75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4266</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>558</v>
+      </c>
+      <c r="H76">
+        <v>1000</v>
+      </c>
+      <c r="I76" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>200</v>
+      </c>
+      <c r="K76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B77" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4267</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s">
+        <v>558</v>
+      </c>
+      <c r="H77">
+        <v>1000</v>
+      </c>
+      <c r="I77" t="s">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>200</v>
+      </c>
+      <c r="K77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4268</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
+        <v>558</v>
+      </c>
+      <c r="H78">
+        <v>1000</v>
+      </c>
+      <c r="I78" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>200</v>
+      </c>
+      <c r="K78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B79" t="s">
+        <v>339</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4269</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
+        <v>558</v>
+      </c>
+      <c r="H79">
+        <v>1000</v>
+      </c>
+      <c r="I79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>200</v>
+      </c>
+      <c r="K79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4270</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>558</v>
+      </c>
+      <c r="H80">
+        <v>1000</v>
+      </c>
+      <c r="I80" t="s">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>200</v>
+      </c>
+      <c r="K80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B81" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4271</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s">
+        <v>558</v>
+      </c>
+      <c r="H81">
+        <v>1000</v>
+      </c>
+      <c r="I81" t="s">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>200</v>
+      </c>
+      <c r="K81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4272</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>558</v>
+      </c>
+      <c r="H82">
+        <v>1000</v>
+      </c>
+      <c r="I82" t="s">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>200</v>
+      </c>
+      <c r="K82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E83" t="s">
+        <v>4273</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
+        <v>558</v>
+      </c>
+      <c r="H83">
+        <v>1000</v>
+      </c>
+      <c r="I83" t="s">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>200</v>
+      </c>
+      <c r="K83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4274</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
+        <v>558</v>
+      </c>
+      <c r="H84">
+        <v>1000</v>
+      </c>
+      <c r="I84" t="s">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>200</v>
+      </c>
+      <c r="K84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B85" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4275</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
+        <v>558</v>
+      </c>
+      <c r="H85">
+        <v>1000</v>
+      </c>
+      <c r="I85" t="s">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>200</v>
+      </c>
+      <c r="K85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B86" t="s">
+        <v>384</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4276</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
+        <v>558</v>
+      </c>
+      <c r="H86">
+        <v>1000</v>
+      </c>
+      <c r="I86" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>200</v>
+      </c>
+      <c r="K86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E87" t="s">
+        <v>4277</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
+        <v>558</v>
+      </c>
+      <c r="H87">
+        <v>1000</v>
+      </c>
+      <c r="I87" t="s">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>200</v>
+      </c>
+      <c r="K87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B88" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4278</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
+        <v>558</v>
+      </c>
+      <c r="H88">
+        <v>1000</v>
+      </c>
+      <c r="I88" t="s">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>200</v>
+      </c>
+      <c r="K88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B89" t="s">
+        <v>279</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E89" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
+        <v>558</v>
+      </c>
+      <c r="H89">
+        <v>1000</v>
+      </c>
+      <c r="I89" t="s">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>200</v>
+      </c>
+      <c r="K89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B90" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4280</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>558</v>
+      </c>
+      <c r="H90">
+        <v>1000</v>
+      </c>
+      <c r="I90" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>200</v>
+      </c>
+      <c r="K90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B91" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4281</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>558</v>
+      </c>
+      <c r="H91">
+        <v>1000</v>
+      </c>
+      <c r="I91" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>200</v>
+      </c>
+      <c r="K91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4282</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>558</v>
+      </c>
+      <c r="H92">
+        <v>1000</v>
+      </c>
+      <c r="I92" t="s">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>200</v>
+      </c>
+      <c r="K92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B93" t="s">
+        <v>342</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>558</v>
+      </c>
+      <c r="H93">
+        <v>1000</v>
+      </c>
+      <c r="I93" t="s">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>200</v>
+      </c>
+      <c r="K93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4284</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>558</v>
+      </c>
+      <c r="H94">
+        <v>1000</v>
+      </c>
+      <c r="I94" t="s">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>200</v>
+      </c>
+      <c r="K94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4285</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>558</v>
+      </c>
+      <c r="H95">
+        <v>1000</v>
+      </c>
+      <c r="I95" t="s">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>200</v>
+      </c>
+      <c r="K95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4286</v>
+      </c>
+      <c r="F96" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>558</v>
+      </c>
+      <c r="H96">
+        <v>1000</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>200</v>
+      </c>
+      <c r="K96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B97" t="s">
+        <v>348</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4289</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4287</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>558</v>
+      </c>
+      <c r="H97">
+        <v>1000</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>200</v>
+      </c>
+      <c r="K97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B98" t="s">
+        <v>312</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4192</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>558</v>
+      </c>
+      <c r="H98">
+        <v>1000</v>
+      </c>
+      <c r="I98" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>200</v>
+      </c>
+      <c r="K98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B99" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4193</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
+        <v>558</v>
+      </c>
+      <c r="H99">
+        <v>1000</v>
+      </c>
+      <c r="I99" t="s">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>200</v>
+      </c>
+      <c r="K99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B100" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4194</v>
+      </c>
+      <c r="F100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>558</v>
+      </c>
+      <c r="H100">
+        <v>1000</v>
+      </c>
+      <c r="I100" t="s">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>200</v>
+      </c>
+      <c r="K100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E101" t="s">
+        <v>4195</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>558</v>
+      </c>
+      <c r="H101">
+        <v>1000</v>
+      </c>
+      <c r="I101" t="s">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>200</v>
+      </c>
+      <c r="K101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B102" t="s">
+        <v>198</v>
+      </c>
+      <c r="C102" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E102" t="s">
+        <v>4196</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>558</v>
+      </c>
+      <c r="H102">
+        <v>1000</v>
+      </c>
+      <c r="I102" t="s">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>200</v>
+      </c>
+      <c r="K102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B103" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E103" t="s">
+        <v>4197</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
+        <v>558</v>
+      </c>
+      <c r="H103">
+        <v>1000</v>
+      </c>
+      <c r="I103" t="s">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>200</v>
+      </c>
+      <c r="K103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B104" t="s">
+        <v>189</v>
+      </c>
+      <c r="C104" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D104" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E104" t="s">
+        <v>4198</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
+        <v>558</v>
+      </c>
+      <c r="H104">
+        <v>1000</v>
+      </c>
+      <c r="I104" t="s">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>200</v>
+      </c>
+      <c r="K104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E105" t="s">
+        <v>4199</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>558</v>
+      </c>
+      <c r="H105">
+        <v>1000</v>
+      </c>
+      <c r="I105" t="s">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>200</v>
+      </c>
+      <c r="K105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B106" t="s">
+        <v>102</v>
+      </c>
+      <c r="C106" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E106" t="s">
+        <v>4200</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>558</v>
+      </c>
+      <c r="H106">
+        <v>1000</v>
+      </c>
+      <c r="I106" t="s">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>200</v>
+      </c>
+      <c r="K106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B107" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E107" t="s">
+        <v>4201</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>558</v>
+      </c>
+      <c r="H107">
+        <v>1000</v>
+      </c>
+      <c r="I107" t="s">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>200</v>
+      </c>
+      <c r="K107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B108" t="s">
+        <v>81</v>
+      </c>
+      <c r="C108" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D108" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E108" t="s">
+        <v>4202</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>558</v>
+      </c>
+      <c r="H108">
+        <v>1000</v>
+      </c>
+      <c r="I108" t="s">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>200</v>
+      </c>
+      <c r="K108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B109" t="s">
+        <v>297</v>
+      </c>
+      <c r="C109" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E109" t="s">
+        <v>4203</v>
+      </c>
+      <c r="F109" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>558</v>
+      </c>
+      <c r="H109">
+        <v>1000</v>
+      </c>
+      <c r="I109" t="s">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>200</v>
+      </c>
+      <c r="K109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B110" t="s">
+        <v>318</v>
+      </c>
+      <c r="C110" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E110" t="s">
+        <v>4204</v>
+      </c>
+      <c r="F110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>558</v>
+      </c>
+      <c r="H110">
+        <v>1000</v>
+      </c>
+      <c r="I110" t="s">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>200</v>
+      </c>
+      <c r="K110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B111" t="s">
+        <v>105</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E111" t="s">
+        <v>4205</v>
+      </c>
+      <c r="F111" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>558</v>
+      </c>
+      <c r="H111">
+        <v>1000</v>
+      </c>
+      <c r="I111" t="s">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>200</v>
+      </c>
+      <c r="K111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B112" t="s">
+        <v>144</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D112" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E112" t="s">
+        <v>4206</v>
+      </c>
+      <c r="F112" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>558</v>
+      </c>
+      <c r="H112">
+        <v>1000</v>
+      </c>
+      <c r="I112" t="s">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>200</v>
+      </c>
+      <c r="K112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B113" t="s">
+        <v>372</v>
+      </c>
+      <c r="C113" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E113" t="s">
+        <v>4207</v>
+      </c>
+      <c r="F113" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>558</v>
+      </c>
+      <c r="H113">
+        <v>1000</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>200</v>
+      </c>
+      <c r="K113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B114" t="s">
+        <v>219</v>
+      </c>
+      <c r="C114" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E114" t="s">
+        <v>4208</v>
+      </c>
+      <c r="F114" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>558</v>
+      </c>
+      <c r="H114">
+        <v>1000</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>200</v>
+      </c>
+      <c r="K114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B115" t="s">
+        <v>210</v>
+      </c>
+      <c r="C115" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E115" t="s">
+        <v>4209</v>
+      </c>
+      <c r="F115" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" t="s">
+        <v>558</v>
+      </c>
+      <c r="H115">
+        <v>1000</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>200</v>
+      </c>
+      <c r="K115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B116" t="s">
+        <v>138</v>
+      </c>
+      <c r="C116" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D116" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E116" t="s">
+        <v>4210</v>
+      </c>
+      <c r="F116" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" t="s">
+        <v>558</v>
+      </c>
+      <c r="H116">
+        <v>1000</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>200</v>
+      </c>
+      <c r="K116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B117" t="s">
+        <v>345</v>
+      </c>
+      <c r="C117" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D117" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E117" t="s">
+        <v>4211</v>
+      </c>
+      <c r="F117" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s">
+        <v>558</v>
+      </c>
+      <c r="H117">
+        <v>1000</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>200</v>
+      </c>
+      <c r="K117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E118" t="s">
+        <v>4212</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s">
+        <v>558</v>
+      </c>
+      <c r="H118">
+        <v>1000</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>200</v>
+      </c>
+      <c r="K118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D119" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E119" t="s">
+        <v>4213</v>
+      </c>
+      <c r="F119" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s">
+        <v>558</v>
+      </c>
+      <c r="H119">
+        <v>1000</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>200</v>
+      </c>
+      <c r="K119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B120" t="s">
+        <v>387</v>
+      </c>
+      <c r="C120" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D120" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E120" t="s">
+        <v>4214</v>
+      </c>
+      <c r="F120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" t="s">
+        <v>558</v>
+      </c>
+      <c r="H120">
+        <v>1000</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>200</v>
+      </c>
+      <c r="K120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B121" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D121" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E121" t="s">
+        <v>4215</v>
+      </c>
+      <c r="F121" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" t="s">
+        <v>558</v>
+      </c>
+      <c r="H121">
+        <v>1000</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1</v>
+      </c>
+      <c r="J121">
+        <v>200</v>
+      </c>
+      <c r="K121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B122" t="s">
+        <v>399</v>
+      </c>
+      <c r="C122" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E122" t="s">
+        <v>4216</v>
+      </c>
+      <c r="F122" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" t="s">
+        <v>558</v>
+      </c>
+      <c r="H122">
+        <v>1000</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>200</v>
+      </c>
+      <c r="K122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B123" t="s">
+        <v>403</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D123" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E123" t="s">
+        <v>4217</v>
+      </c>
+      <c r="F123" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s">
+        <v>558</v>
+      </c>
+      <c r="H123">
+        <v>1000</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>200</v>
+      </c>
+      <c r="K123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B124" t="s">
+        <v>406</v>
+      </c>
+      <c r="C124" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D124" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E124" t="s">
+        <v>4218</v>
+      </c>
+      <c r="F124" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" t="s">
+        <v>558</v>
+      </c>
+      <c r="H124">
+        <v>1000</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>200</v>
+      </c>
+      <c r="K124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B125" t="s">
+        <v>409</v>
+      </c>
+      <c r="C125" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D125" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E125" t="s">
+        <v>4219</v>
+      </c>
+      <c r="F125" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s">
+        <v>558</v>
+      </c>
+      <c r="H125">
+        <v>1000</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>200</v>
+      </c>
+      <c r="K125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B126" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E126" t="s">
+        <v>4220</v>
+      </c>
+      <c r="F126" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" t="s">
+        <v>558</v>
+      </c>
+      <c r="H126">
+        <v>1000</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>200</v>
+      </c>
+      <c r="K126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>4415</v>
+      </c>
+      <c r="B127" t="s">
+        <v>416</v>
+      </c>
+      <c r="C127" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D127" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4221</v>
+      </c>
+      <c r="F127" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s">
+        <v>558</v>
+      </c>
+      <c r="H127">
+        <v>1000</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>200</v>
+      </c>
+      <c r="K127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>4416</v>
+      </c>
+      <c r="B128" t="s">
+        <v>420</v>
+      </c>
+      <c r="C128" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D128" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E128" t="s">
+        <v>4222</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>558</v>
+      </c>
+      <c r="H128">
+        <v>1000</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>200</v>
+      </c>
+      <c r="K128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B129" t="s">
+        <v>423</v>
+      </c>
+      <c r="C129" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D129" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E129" t="s">
+        <v>4223</v>
+      </c>
+      <c r="F129" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s">
+        <v>558</v>
+      </c>
+      <c r="H129">
+        <v>1000</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>200</v>
+      </c>
+      <c r="K129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>4418</v>
+      </c>
+      <c r="B130" t="s">
+        <v>427</v>
+      </c>
+      <c r="C130" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4224</v>
+      </c>
+      <c r="F130" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" t="s">
+        <v>558</v>
+      </c>
+      <c r="H130">
+        <v>1000</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>200</v>
+      </c>
+      <c r="K130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B131" t="s">
+        <v>430</v>
+      </c>
+      <c r="C131" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D131" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E131" t="s">
+        <v>4225</v>
+      </c>
+      <c r="F131" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s">
+        <v>558</v>
+      </c>
+      <c r="H131">
+        <v>1000</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>200</v>
+      </c>
+      <c r="K131" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>4420</v>
+      </c>
+      <c r="B132" t="s">
+        <v>433</v>
+      </c>
+      <c r="C132" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D132" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E132" t="s">
+        <v>4226</v>
+      </c>
+      <c r="F132" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" t="s">
+        <v>558</v>
+      </c>
+      <c r="H132">
+        <v>1000</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>200</v>
+      </c>
+      <c r="K132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>4421</v>
+      </c>
+      <c r="B133" t="s">
+        <v>436</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D133" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E133" t="s">
+        <v>4227</v>
+      </c>
+      <c r="F133" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s">
+        <v>558</v>
+      </c>
+      <c r="H133">
+        <v>1000</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>200</v>
+      </c>
+      <c r="K133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>4422</v>
+      </c>
+      <c r="B134" t="s">
+        <v>440</v>
+      </c>
+      <c r="C134" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E134" t="s">
+        <v>4228</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>558</v>
+      </c>
+      <c r="H134">
+        <v>1000</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>200</v>
+      </c>
+      <c r="K134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>4423</v>
+      </c>
+      <c r="B135" t="s">
+        <v>443</v>
+      </c>
+      <c r="C135" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D135" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E135" t="s">
+        <v>4229</v>
+      </c>
+      <c r="F135" t="s">
+        <v>19</v>
+      </c>
+      <c r="G135" t="s">
+        <v>558</v>
+      </c>
+      <c r="H135">
+        <v>1000</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>200</v>
+      </c>
+      <c r="K135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>4424</v>
+      </c>
+      <c r="B136" t="s">
+        <v>446</v>
+      </c>
+      <c r="C136" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4230</v>
+      </c>
+      <c r="F136" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" t="s">
+        <v>558</v>
+      </c>
+      <c r="H136">
+        <v>1000</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>200</v>
+      </c>
+      <c r="K136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B137" t="s">
+        <v>449</v>
+      </c>
+      <c r="C137" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D137" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E137" t="s">
+        <v>4231</v>
+      </c>
+      <c r="F137" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" t="s">
+        <v>558</v>
+      </c>
+      <c r="H137">
+        <v>1000</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>200</v>
+      </c>
+      <c r="K137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>4426</v>
+      </c>
+      <c r="B138" t="s">
+        <v>452</v>
+      </c>
+      <c r="C138" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D138" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E138" t="s">
+        <v>4232</v>
+      </c>
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s">
+        <v>558</v>
+      </c>
+      <c r="H138">
+        <v>1000</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>200</v>
+      </c>
+      <c r="K138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B139" t="s">
+        <v>455</v>
+      </c>
+      <c r="C139" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D139" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E139" t="s">
+        <v>4233</v>
+      </c>
+      <c r="F139" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" t="s">
+        <v>558</v>
+      </c>
+      <c r="H139">
+        <v>1000</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>200</v>
+      </c>
+      <c r="K139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>4428</v>
+      </c>
+      <c r="B140" t="s">
+        <v>458</v>
+      </c>
+      <c r="C140" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D140" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E140" t="s">
+        <v>4234</v>
+      </c>
+      <c r="F140" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s">
+        <v>558</v>
+      </c>
+      <c r="H140">
+        <v>1000</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>200</v>
+      </c>
+      <c r="K140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>4429</v>
+      </c>
+      <c r="B141" t="s">
+        <v>461</v>
+      </c>
+      <c r="C141" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D141" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F141" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" t="s">
+        <v>558</v>
+      </c>
+      <c r="H141">
+        <v>1000</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>200</v>
+      </c>
+      <c r="K141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B142" t="s">
+        <v>464</v>
+      </c>
+      <c r="C142" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D142" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E142" t="s">
+        <v>4236</v>
+      </c>
+      <c r="F142" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s">
+        <v>558</v>
+      </c>
+      <c r="H142">
+        <v>1000</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>200</v>
+      </c>
+      <c r="K142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>4431</v>
+      </c>
+      <c r="B143" t="s">
+        <v>467</v>
+      </c>
+      <c r="C143" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D143" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E143" t="s">
+        <v>4237</v>
+      </c>
+      <c r="F143" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" t="s">
+        <v>558</v>
+      </c>
+      <c r="H143">
+        <v>1000</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>200</v>
+      </c>
+      <c r="K143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B144" t="s">
+        <v>470</v>
+      </c>
+      <c r="C144" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D144" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E144" t="s">
+        <v>4238</v>
+      </c>
+      <c r="F144" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>558</v>
+      </c>
+      <c r="H144">
+        <v>1000</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>200</v>
+      </c>
+      <c r="K144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>4433</v>
+      </c>
+      <c r="B145" t="s">
+        <v>473</v>
+      </c>
+      <c r="C145" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D145" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E145" t="s">
+        <v>4239</v>
+      </c>
+      <c r="F145" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>558</v>
+      </c>
+      <c r="H145">
+        <v>1000</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>200</v>
+      </c>
+      <c r="K145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>4434</v>
+      </c>
+      <c r="B146" t="s">
+        <v>476</v>
+      </c>
+      <c r="C146" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D146" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E146" t="s">
+        <v>4240</v>
+      </c>
+      <c r="F146" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>558</v>
+      </c>
+      <c r="H146">
+        <v>1000</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>200</v>
+      </c>
+      <c r="K146" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>4435</v>
+      </c>
+      <c r="B147" t="s">
+        <v>479</v>
+      </c>
+      <c r="C147" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D147" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E147" t="s">
+        <v>4241</v>
+      </c>
+      <c r="F147" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>558</v>
+      </c>
+      <c r="H147">
+        <v>1000</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>200</v>
+      </c>
+      <c r="K147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>4436</v>
+      </c>
+      <c r="B148" t="s">
+        <v>482</v>
+      </c>
+      <c r="C148" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D148" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4242</v>
+      </c>
+      <c r="F148" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>558</v>
+      </c>
+      <c r="H148">
+        <v>1000</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>200</v>
+      </c>
+      <c r="K148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>4437</v>
+      </c>
+      <c r="B149" t="s">
+        <v>485</v>
+      </c>
+      <c r="C149" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D149" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4243</v>
+      </c>
+      <c r="F149" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>558</v>
+      </c>
+      <c r="H149">
+        <v>1000</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>200</v>
+      </c>
+      <c r="K149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>4438</v>
+      </c>
+      <c r="B150" t="s">
+        <v>488</v>
+      </c>
+      <c r="C150" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D150" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E150" t="s">
+        <v>4244</v>
+      </c>
+      <c r="F150" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>558</v>
+      </c>
+      <c r="H150">
+        <v>1000</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>200</v>
+      </c>
+      <c r="K150" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B151" t="s">
+        <v>491</v>
+      </c>
+      <c r="C151" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D151" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E151" t="s">
+        <v>4245</v>
+      </c>
+      <c r="F151" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>558</v>
+      </c>
+      <c r="H151">
+        <v>1000</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>200</v>
+      </c>
+      <c r="K151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B152" t="s">
+        <v>494</v>
+      </c>
+      <c r="C152" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D152" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E152" t="s">
+        <v>4246</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>558</v>
+      </c>
+      <c r="H152">
+        <v>1000</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>200</v>
+      </c>
+      <c r="K152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B153" t="s">
+        <v>497</v>
+      </c>
+      <c r="C153" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D153" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E153" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>558</v>
+      </c>
+      <c r="H153">
+        <v>1000</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>200</v>
+      </c>
+      <c r="K153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>4442</v>
+      </c>
+      <c r="B154" t="s">
+        <v>500</v>
+      </c>
+      <c r="C154" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D154" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E154" t="s">
+        <v>4248</v>
+      </c>
+      <c r="F154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154" t="s">
+        <v>558</v>
+      </c>
+      <c r="H154">
+        <v>1000</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>200</v>
+      </c>
+      <c r="K154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B155" t="s">
+        <v>504</v>
+      </c>
+      <c r="C155" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D155" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E155" t="s">
+        <v>4249</v>
+      </c>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s">
+        <v>558</v>
+      </c>
+      <c r="H155">
+        <v>1000</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>200</v>
+      </c>
+      <c r="K155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>4444</v>
+      </c>
+      <c r="B156" t="s">
+        <v>507</v>
+      </c>
+      <c r="C156" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D156" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4250</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" t="s">
+        <v>558</v>
+      </c>
+      <c r="H156">
+        <v>1000</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>200</v>
+      </c>
+      <c r="K156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B157" t="s">
+        <v>510</v>
+      </c>
+      <c r="C157" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D157" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E157" t="s">
+        <v>4251</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>558</v>
+      </c>
+      <c r="H157">
+        <v>1000</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>200</v>
+      </c>
+      <c r="K157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>4446</v>
+      </c>
+      <c r="B158" t="s">
+        <v>513</v>
+      </c>
+      <c r="C158" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D158" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E158" t="s">
+        <v>4252</v>
+      </c>
+      <c r="F158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s">
+        <v>558</v>
+      </c>
+      <c r="H158">
+        <v>1000</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>200</v>
+      </c>
+      <c r="K158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B159" t="s">
+        <v>516</v>
+      </c>
+      <c r="C159" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D159" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E159" t="s">
+        <v>4253</v>
+      </c>
+      <c r="F159" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s">
+        <v>558</v>
+      </c>
+      <c r="H159">
+        <v>1000</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>200</v>
+      </c>
+      <c r="K159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>4448</v>
+      </c>
+      <c r="B160" t="s">
+        <v>519</v>
+      </c>
+      <c r="C160" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D160" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E160" t="s">
+        <v>4254</v>
+      </c>
+      <c r="F160" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s">
+        <v>558</v>
+      </c>
+      <c r="H160">
+        <v>1000</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>200</v>
+      </c>
+      <c r="K160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>4449</v>
+      </c>
+      <c r="B161" t="s">
+        <v>522</v>
+      </c>
+      <c r="C161" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D161" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E161" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F161" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s">
+        <v>558</v>
+      </c>
+      <c r="H161">
+        <v>1000</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>200</v>
+      </c>
+      <c r="K161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B162" t="s">
+        <v>525</v>
+      </c>
+      <c r="C162" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D162" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4256</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>558</v>
+      </c>
+      <c r="H162">
+        <v>1000</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>200</v>
+      </c>
+      <c r="K162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>4451</v>
+      </c>
+      <c r="B163" t="s">
+        <v>528</v>
+      </c>
+      <c r="C163" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D163" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E163" t="s">
+        <v>4257</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>558</v>
+      </c>
+      <c r="H163">
+        <v>1000</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>200</v>
+      </c>
+      <c r="K163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>4452</v>
+      </c>
+      <c r="B164" t="s">
+        <v>531</v>
+      </c>
+      <c r="C164" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D164" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E164" t="s">
+        <v>4258</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s">
+        <v>558</v>
+      </c>
+      <c r="H164">
+        <v>1000</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>200</v>
+      </c>
+      <c r="K164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B165" t="s">
+        <v>534</v>
+      </c>
+      <c r="C165" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D165" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F165" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s">
+        <v>558</v>
+      </c>
+      <c r="H165">
+        <v>1000</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>200</v>
+      </c>
+      <c r="K165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>4454</v>
+      </c>
+      <c r="B166" t="s">
+        <v>537</v>
+      </c>
+      <c r="C166" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D166" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E166" t="s">
+        <v>4260</v>
+      </c>
+      <c r="F166" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s">
+        <v>558</v>
+      </c>
+      <c r="H166">
+        <v>1000</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>200</v>
+      </c>
+      <c r="K166" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B167" t="s">
+        <v>540</v>
+      </c>
+      <c r="C167" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D167" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E167" t="s">
+        <v>4261</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s">
+        <v>558</v>
+      </c>
+      <c r="H167">
+        <v>1000</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>200</v>
+      </c>
+      <c r="K167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>4456</v>
+      </c>
+      <c r="B168" t="s">
+        <v>543</v>
+      </c>
+      <c r="C168" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D168" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E168" t="s">
+        <v>4262</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>558</v>
+      </c>
+      <c r="H168">
+        <v>1000</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>200</v>
+      </c>
+      <c r="K168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B169" t="s">
+        <v>546</v>
+      </c>
+      <c r="C169" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D169" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E169" t="s">
+        <v>4263</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>558</v>
+      </c>
+      <c r="H169">
+        <v>1000</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>200</v>
+      </c>
+      <c r="K169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>4458</v>
+      </c>
+      <c r="B170" t="s">
+        <v>549</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D170" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E170" t="s">
+        <v>4264</v>
+      </c>
+      <c r="F170" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s">
+        <v>558</v>
+      </c>
+      <c r="H170">
+        <v>1000</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>200</v>
+      </c>
+      <c r="K170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>4459</v>
+      </c>
+      <c r="B171" t="s">
+        <v>552</v>
+      </c>
+      <c r="C171" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D171" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4265</v>
+      </c>
+      <c r="F171" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s">
+        <v>558</v>
+      </c>
+      <c r="H171">
+        <v>1000</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>200</v>
+      </c>
+      <c r="K171" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B172" t="s">
+        <v>555</v>
+      </c>
+      <c r="C172" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D172" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E172" t="s">
+        <v>4266</v>
+      </c>
+      <c r="F172" t="s">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s">
+        <v>558</v>
+      </c>
+      <c r="H172">
+        <v>1000</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>200</v>
+      </c>
+      <c r="K172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database/lookup_tables.xlsx
+++ b/database/lookup_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobkro/MAXIV/FragMAX/LP3/FragMAX_crystal_preparation/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27E01A2-0FA5-ED4F-8AAC-143B8BC901C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7489EA-A1C1-1343-BA1E-05A6B4945A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15400" yWindow="3740" windowWidth="32440" windowHeight="19400" xr2:uid="{23C4A0E7-F54C-6F47-8447-51E96695376B}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6784" uniqueCount="4480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6788" uniqueCount="4484">
   <si>
     <t>M</t>
   </si>
@@ -13514,6 +13514,18 @@
   </si>
   <si>
     <t>picogram</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Kelvin</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Degree</t>
   </si>
 </sst>
 </file>
@@ -13873,10 +13885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F70308-A4DB-EC47-892A-0EC684591C0E}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14115,6 +14127,28 @@
       <c r="C20">
         <f t="shared" si="2"/>
         <v>9.9999999999999978E-13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>4480</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C21">
+        <v>-273.14999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4482</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
